--- a/data/trans_camb/P1422-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1422-Edad-trans_camb.xlsx
@@ -656,11 +656,11 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>1.911113669915539</v>
+        <v>1.848481551714539</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.8827479422297575</v>
+        <v>1.041897749660678</v>
       </c>
     </row>
     <row r="7">
@@ -751,20 +751,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3024593527006094</v>
+        <v>-0.30170745000853</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2989216767776919</v>
+        <v>-0.3000402706864767</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1596677941429378</v>
+        <v>-0.1593210890584151</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.07984702251703124</v>
+        <v>-0.07961211171720455</v>
       </c>
     </row>
     <row r="12">
@@ -775,20 +775,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4984813105459974</v>
+        <v>0.5127182409153507</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.114580790202893</v>
+        <v>1.176647083409807</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.9551055322565591</v>
+        <v>0.9688004684553972</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2544987615549272</v>
+        <v>0.3353214664960859</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6492953669457634</v>
+        <v>0.7119759153155653</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.337457696537381</v>
+        <v>0.3374576965373811</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.422533097780265</v>
@@ -883,20 +883,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.13900553722327</v>
+        <v>-2.172871395948698</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.155414505002545</v>
+        <v>-2.441566324529929</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.08851987058479284</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9985276280472738</v>
+        <v>-0.9986383313898771</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.9399639818331834</v>
+        <v>-0.9150894395547988</v>
       </c>
     </row>
     <row r="18">
@@ -907,20 +907,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1474056909234919</v>
+        <v>-0.1429305892401697</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.312866284182821</v>
+        <v>-0.3022331201001655</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.9818614883122485</v>
+        <v>0.9270094580688986</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.003636850649508621</v>
+        <v>-0.003182551403010936</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1185453079864855</v>
+        <v>0.08515775541466104</v>
       </c>
     </row>
     <row r="19">
@@ -964,11 +964,9 @@
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.9298833640077916</v>
+        <v>-0.9139173892180286</v>
       </c>
     </row>
     <row r="21">
@@ -979,18 +977,16 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3522494865071593</v>
+        <v>0.7176407760257781</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4122596558631028</v>
+        <v>-0.01336282848679162</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
-      <c r="G21" s="6" t="n">
-        <v>0.3055563674946519</v>
-      </c>
+      <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.8975250532633295</v>
+        <v>0.7799042519858124</v>
       </c>
     </row>
     <row r="22">
@@ -1008,7 +1004,7 @@
         <v>0.1094977276287513</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2325767036277597</v>
+        <v>0.2325767036277595</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.6747929074180117</v>
@@ -1031,22 +1027,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8358967371867653</v>
+        <v>-0.8297449168590596</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7099927171452324</v>
+        <v>-0.7098138046157013</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.848438448262776</v>
+        <v>-1.692378043059068</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.546899614251863</v>
+        <v>-1.590245659105609</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9246045186518862</v>
+        <v>-0.9954253290607642</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8553162953755007</v>
+        <v>-0.7582328472160403</v>
       </c>
     </row>
     <row r="24">
@@ -1057,22 +1053,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9944903715982054</v>
+        <v>0.9705639887740197</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.188578111166348</v>
+        <v>1.203279949881654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01885059243249205</v>
+        <v>0.1290840039157685</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2867743141476881</v>
+        <v>0.2234615875625873</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3580364504572032</v>
+        <v>0.3151509454153931</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5275021420710927</v>
+        <v>0.4756227509764553</v>
       </c>
     </row>
     <row r="25">
@@ -1086,7 +1082,7 @@
         <v>0.16705628453072</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3548329341425898</v>
+        <v>0.3548329341425895</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.6778375933395743</v>
@@ -1108,23 +1104,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-0.8168740635948396</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>-0.7273556098720138</v>
+        <v>-0.7443053382758101</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8457043401372606</v>
+        <v>-0.8350737169118294</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7718497743408403</v>
+        <v>-0.7869333664422112</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6622137287110655</v>
+        <v>-0.63191825309475</v>
       </c>
     </row>
     <row r="27">
@@ -1134,23 +1128,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>4.663274473579712</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5.945579452713806</v>
+        <v>5.439525646916427</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.027069352057995</v>
+        <v>0.6299611147727784</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9772283498264798</v>
+        <v>0.7322060750940762</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.036601127526869</v>
+        <v>0.8466718081756452</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.385628392947501</v>
+        <v>1.206025478979071</v>
       </c>
     </row>
     <row r="28">
@@ -1174,7 +1166,7 @@
         <v>0.2115375621148782</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.396437242326862</v>
+        <v>1.396437242326863</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.113258426689438</v>
@@ -1191,22 +1183,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9096611331457909</v>
+        <v>-0.9269166526357138</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7352663521800158</v>
+        <v>0.6714997518197826</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4229319008653862</v>
+        <v>-0.4209934543872599</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5582580245081116</v>
+        <v>0.5585058337853578</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4471378920894328</v>
+        <v>-0.4458169548096658</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8480159786435697</v>
+        <v>0.9250334389415169</v>
       </c>
     </row>
     <row r="30">
@@ -1217,22 +1209,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9557427304195479</v>
+        <v>0.9681719551309423</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.501617313450677</v>
+        <v>3.428042467123249</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.059990544374234</v>
+        <v>1.058259379302134</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.343208003044829</v>
+        <v>2.288079610898251</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6632589777182509</v>
+        <v>0.6856281927951676</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.527026756438864</v>
+        <v>2.570105809915291</v>
       </c>
     </row>
     <row r="31">
@@ -1252,13 +1244,13 @@
         <v>1.003690327556614</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>6.625728968182731</v>
+        <v>6.625728968182734</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3367867074144759</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5.080784223116972</v>
+        <v>5.080784223116973</v>
       </c>
     </row>
     <row r="32">
@@ -1270,13 +1262,13 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>0.2756780117503931</v>
+        <v>0.1370824424524864</v>
       </c>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="n">
-        <v>0.7922983548491711</v>
+        <v>0.9660116905344642</v>
       </c>
     </row>
     <row r="33">
@@ -1292,7 +1284,7 @@
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="n">
-        <v>20.76363030682897</v>
+        <v>21.20744884321232</v>
       </c>
     </row>
     <row r="34">
@@ -1310,7 +1302,7 @@
         <v>0.08134022536075043</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.1600133735534463</v>
+        <v>-0.1600133735534467</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0.1317356940822689</v>
@@ -1333,22 +1325,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.944798498180393</v>
+        <v>-2.015882709597997</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.429749323709911</v>
+        <v>-2.25553309112352</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.729360292128839</v>
+        <v>-1.794418246762531</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.830409940740267</v>
+        <v>-2.142078220684378</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.239655941356633</v>
+        <v>-1.400327733354174</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.417228424671169</v>
+        <v>-1.31848788118118</v>
       </c>
     </row>
     <row r="36">
@@ -1359,22 +1351,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.390960958230639</v>
+        <v>2.5172930473761</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.35026981198662</v>
+        <v>1.521425264925192</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.147484930905158</v>
+        <v>2.134934449452469</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.499699253057438</v>
+        <v>1.311390805098113</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.794649511458149</v>
+        <v>1.488160238561898</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.146046932162377</v>
+        <v>1.102891514519119</v>
       </c>
     </row>
     <row r="37">
@@ -1388,7 +1380,7 @@
         <v>0.04284811584200206</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.08429127821910379</v>
+        <v>-0.08429127821910397</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.07561294506835073</v>
@@ -1411,22 +1403,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7412534703282813</v>
+        <v>-0.714845507877641</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7074696061852822</v>
+        <v>-0.6866355832348079</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7549263438607543</v>
+        <v>-0.7134173256546555</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6339570306908187</v>
+        <v>-0.6559294406585676</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5021233406101091</v>
+        <v>-0.5921009068871885</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.508256476010385</v>
+        <v>-0.5210494166615449</v>
       </c>
     </row>
     <row r="39">
@@ -1437,22 +1429,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.888190372131776</v>
+        <v>3.650344486111748</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.575129230505955</v>
+        <v>2.321302822524491</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.649757758737767</v>
+        <v>3.594939779204937</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.147827429471108</v>
+        <v>1.490210982650487</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.81969266121295</v>
+        <v>1.390893008814941</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.024204335166007</v>
+        <v>1.086994396189176</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1462,7 @@
         <v>-3.241351851570154</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-0.5392717288354797</v>
+        <v>-0.5392717288354789</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-0.7400536735567543</v>
@@ -1482,7 +1474,7 @@
         <v>-1.718311166764905</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.4239046427156695</v>
+        <v>-0.4239046427156702</v>
       </c>
     </row>
     <row r="41">
@@ -1493,22 +1485,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.614808946595337</v>
+        <v>-7.06773615232031</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.261966489778456</v>
+        <v>-5.105903922090442</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.089049608681003</v>
+        <v>-3.032361783317483</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.747872702438508</v>
+        <v>-2.694923861893254</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.825918834977814</v>
+        <v>-4.077891983526134</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.664284274823913</v>
+        <v>-2.496761702083947</v>
       </c>
     </row>
     <row r="42">
@@ -1519,22 +1511,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.2997882580737137</v>
+        <v>-0.0005786378186001984</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.613403285411557</v>
+        <v>2.78418072735996</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.866716358658117</v>
+        <v>2.19296272964139</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.637176296264798</v>
+        <v>1.653877579030968</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.1740209031315236</v>
+        <v>0.3071950401413179</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.399128331277209</v>
+        <v>1.348290291988127</v>
       </c>
     </row>
     <row r="43">
@@ -1548,7 +1540,7 @@
         <v>-0.6294152726117036</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.1047173765021362</v>
+        <v>-0.1047173765021361</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.2368748680869092</v>
@@ -1560,7 +1552,7 @@
         <v>-0.4387427643601562</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1082371449173171</v>
+        <v>-0.1082371449173172</v>
       </c>
     </row>
     <row r="44">
@@ -1571,22 +1563,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.908825884763549</v>
+        <v>-0.888963690673761</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6299855598268503</v>
+        <v>-0.624942608938222</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7249496664548287</v>
+        <v>-0.7253673701956669</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5721269873276619</v>
+        <v>-0.573569010641453</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7143282320917584</v>
+        <v>-0.7555967648341601</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4815585942229163</v>
+        <v>-0.4555723834459602</v>
       </c>
     </row>
     <row r="45">
@@ -1597,22 +1589,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.08871591527646369</v>
+        <v>0.1553968195571868</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9712838512591858</v>
+        <v>1.097926827337722</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.111264471136246</v>
+        <v>1.291593140969732</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.923766751578318</v>
+        <v>0.9860364668110596</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1460086705944382</v>
+        <v>0.135537901341134</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5464131948852364</v>
+        <v>0.5299371950534602</v>
       </c>
     </row>
     <row r="46">
@@ -1642,7 +1634,7 @@
         <v>-0.2344731490998059</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.3050941131688467</v>
+        <v>0.3050941131688465</v>
       </c>
     </row>
     <row r="47">
@@ -1653,22 +1645,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.8132001673499796</v>
+        <v>-0.8256547437010973</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.1915374878450309</v>
+        <v>-0.2697382185344522</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.5901637447123677</v>
+        <v>-0.6281537296314704</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.06804838115613478</v>
+        <v>-0.10734922337867</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5393016148542279</v>
+        <v>-0.5259577696429629</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.02740951735896684</v>
+        <v>-0.01194261793520275</v>
       </c>
     </row>
     <row r="48">
@@ -1679,22 +1671,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.07923067570255415</v>
+        <v>0.07506038788027834</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.7738633563370576</v>
+        <v>0.7954248149147578</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.3203079899894984</v>
+        <v>0.2593299657590377</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.7054446781214415</v>
+        <v>0.7101208763425152</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.06733303314612704</v>
+        <v>0.06530030533036742</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.6307066064927467</v>
+        <v>0.613160327428001</v>
       </c>
     </row>
     <row r="49">
@@ -1720,7 +1712,7 @@
         <v>-0.2774634443025619</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3610326547038042</v>
+        <v>0.361032654703804</v>
       </c>
     </row>
     <row r="50">
@@ -1731,22 +1723,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6404280859991502</v>
+        <v>-0.6472112824422264</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1618241286062542</v>
+        <v>-0.2594336041316855</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6210198606286039</v>
+        <v>-0.6374609813392881</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.08807414362342987</v>
+        <v>-0.1222820552083796</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5236383564887719</v>
+        <v>-0.5137077277191593</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.02733084962915587</v>
+        <v>-0.02772181682839734</v>
       </c>
     </row>
     <row r="51">
@@ -1757,22 +1749,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.134014749941103</v>
+        <v>0.148636444914122</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.082836096622089</v>
+        <v>1.050330620877959</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6469349644023793</v>
+        <v>0.5132202120190813</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.3309188404248</v>
+        <v>1.324710467079105</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1134895211929225</v>
+        <v>0.09917268846454805</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.942123893069184</v>
+        <v>0.8993896110145234</v>
       </c>
     </row>
     <row r="52">
